--- a/Методы и средства криптографической защ инф/Лаба 1/Лаба 1.xlsx
+++ b/Методы и средства криптографической защ инф/Лаба 1/Лаба 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForMi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForMi\OneDrive\Desktop\Fourth_course\Методы и средства криптографической защ инф\Лаба 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A7A76-F539-49A2-9DD6-E47D7AD74CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D9CDFD-CD21-4698-937A-CBAE6400A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{315C38FF-50E9-4A9F-9529-23949800C2DD}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{315C38FF-50E9-4A9F-9529-23949800C2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Шифрующие таблицы" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="36">
   <si>
     <t>ИЛЛЮЗИИ, ЧЕМ БОЛЬШЕ О НИХ ДУМАЕШЬ, ИМЕЮТ СВОЙСТВО МНОЖИТЬСЯ, ПРИОБРЕТАТЬ БОЛЕЕ ВЫРАЖЕННУЮ ФОРМУ.</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>НАВСТРЕЧУ</t>
-  </si>
-  <si>
-    <t>ЫЫ</t>
   </si>
 </sst>
 </file>
@@ -227,11 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,8 +238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -698,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425A173F-6557-45C8-9326-3EE8F9AE504E}">
   <dimension ref="F6:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,737 +706,736 @@
       </c>
     </row>
     <row r="7" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="10" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="P10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Y10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="J11" s="5">
-        <v>8</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
         <v>7</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>1</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>4</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>5</v>
       </c>
-      <c r="P11" s="5">
-        <v>6</v>
-      </c>
-      <c r="T11" s="5">
+      <c r="P11" s="4">
+        <v>6</v>
+      </c>
+      <c r="T11" s="4">
         <v>1</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>2</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>3</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>4</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="4">
         <v>5</v>
       </c>
-      <c r="Y11" s="5">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="5">
+      <c r="Y11" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="4">
         <v>7</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="M12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+      <c r="W12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="3" t="s">
+      <c r="T13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="4" t="s">
+      <c r="Z13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="L16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="T16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="3" t="s">
+      <c r="T16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="3" t="s">
+      <c r="W16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="3" t="s">
+      <c r="O17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="3" t="s">
+      <c r="X17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="O18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y18" s="3" t="s">
+      <c r="X18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+      <c r="Z18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="L19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="P19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="3" t="s">
+      <c r="U19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="W19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Y19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W20" s="3" t="s">
+      <c r="V20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="3" t="s">
+      <c r="V22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA22" s="3" t="s">
+      <c r="Z22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1498,21 +1493,21 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="6:27" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
@@ -1571,9 +1566,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="9:16" x14ac:dyDescent="0.25">
@@ -1609,58 +1602,58 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M7" t="s">
@@ -1668,22 +1661,22 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Методы и средства криптографической защ инф/Лаба 1/Лаба 1.xlsx
+++ b/Методы и средства криптографической защ инф/Лаба 1/Лаба 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForMi\OneDrive\Desktop\Fourth_course\Методы и средства криптографической защ инф\Лаба 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D9CDFD-CD21-4698-937A-CBAE6400A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A53B4-3257-45CF-9784-618333BBA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{315C38FF-50E9-4A9F-9529-23949800C2DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{315C38FF-50E9-4A9F-9529-23949800C2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Шифрующие таблицы" sheetId="1" r:id="rId1"/>
